--- a/mednickdb_pyparse/stagemaps/Kemp_stagemap.xlsx
+++ b/mednickdb_pyparse/stagemaps/Kemp_stagemap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>mapsfrom</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Sleep stage 4</t>
   </si>
   <si>
-    <t>Sleep stage 5</t>
-  </si>
-  <si>
     <t>Sleep stage ?</t>
   </si>
   <si>
@@ -67,6 +64,24 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>stage1</t>
+  </si>
+  <si>
+    <t>stage2</t>
+  </si>
+  <si>
+    <t>sws</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>stage 4</t>
+  </si>
+  <si>
+    <t>Sleep stage R</t>
   </si>
 </sst>
 </file>
@@ -387,10 +402,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.46875" customWidth="1"/>
+    <col min="2" max="2" width="16.5859375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -408,10 +427,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -419,10 +438,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -430,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -441,10 +460,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -452,32 +471,32 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
